--- a/draw/sketch.xlsx
+++ b/draw/sketch.xlsx
@@ -4,21 +4,190 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="素描工具" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="握笔姿势" sheetId="2" r:id="rId2"/>
+    <sheet name="线条练习" sheetId="3" r:id="rId3"/>
+    <sheet name="起型方法" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>铅笔的种类以及运用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+  <si>
+    <t>优势</t>
+  </si>
+  <si>
+    <t>劣势</t>
+  </si>
+  <si>
+    <t>强粘性可塑橡皮/软橡皮</t>
+  </si>
+  <si>
+    <t>减淡颜色，可变性，不能擦干净</t>
+  </si>
+  <si>
+    <t>美妆蛋</t>
+  </si>
+  <si>
+    <t>柔擦，使柔和，细腻</t>
+  </si>
+  <si>
+    <t>很均匀，如皮肤</t>
+  </si>
+  <si>
+    <t>颜色较轻</t>
+  </si>
+  <si>
+    <t>硬橡皮</t>
+  </si>
+  <si>
+    <t>擦干净</t>
+  </si>
+  <si>
+    <t>高光笔</t>
+  </si>
+  <si>
+    <t>点高光</t>
+  </si>
+  <si>
+    <t>橡皮笔</t>
+  </si>
+  <si>
+    <t>减淡颜色</t>
+  </si>
+  <si>
+    <t>自动铅笔</t>
+  </si>
+  <si>
+    <t>起型，塑造</t>
+  </si>
+  <si>
+    <t>炭笔</t>
+  </si>
+  <si>
+    <t>硬炭笔（浅黑），中炭笔（中黑），软炭笔（深黑）</t>
+  </si>
+  <si>
+    <t>2B铅笔（颜色深），2H铅笔（颜色浅）</t>
+  </si>
+  <si>
+    <t>塑造轻线</t>
+  </si>
+  <si>
+    <t>大柔擦笔</t>
+  </si>
+  <si>
+    <t>柔擦，使颜色均匀</t>
+  </si>
+  <si>
+    <t>较均匀，大面积</t>
+  </si>
+  <si>
+    <t>小柔擦笔</t>
+  </si>
+  <si>
+    <t>颜色较重，小面积</t>
+  </si>
+  <si>
+    <t>颜色不均匀</t>
+  </si>
+  <si>
+    <t>纸巾</t>
+  </si>
+  <si>
+    <t>很均匀</t>
+  </si>
+  <si>
+    <t>颜色较中轻</t>
+  </si>
+  <si>
+    <t>手指头</t>
+  </si>
+  <si>
+    <t>较均匀</t>
+  </si>
+  <si>
+    <t>颜色较中下轻</t>
+  </si>
+  <si>
+    <t>美工刀</t>
+  </si>
+  <si>
+    <t>剪纸</t>
+  </si>
+  <si>
+    <t>削笔器</t>
+  </si>
+  <si>
+    <t>削笔，指针对尖，顺时针扭到轻松就削好了</t>
+  </si>
+  <si>
+    <t>油画笔</t>
+  </si>
+  <si>
+    <t>柔擦浅颜色</t>
+  </si>
+  <si>
+    <t>延长器/接笔器</t>
+  </si>
+  <si>
+    <t>小指支撑法</t>
+  </si>
+  <si>
+    <t>起型</t>
+  </si>
+  <si>
+    <t>持棒法</t>
+  </si>
+  <si>
+    <t>上色</t>
+  </si>
+  <si>
+    <t>写字法</t>
+  </si>
+  <si>
+    <t>刻画细节，离笔芯留长</t>
+  </si>
+  <si>
+    <t>基础线</t>
+  </si>
+  <si>
+    <t>两头轻，中间重，所有线条要平行（慢轻落，中重，慢轻起）</t>
+  </si>
+  <si>
+    <t>相交线</t>
+  </si>
+  <si>
+    <t>把颜色变重（锐角相交，别垂直相交）</t>
+  </si>
+  <si>
+    <t>渐变线</t>
+  </si>
+  <si>
+    <t>重往轻</t>
+  </si>
+  <si>
+    <t>旋转线</t>
+  </si>
+  <si>
+    <t>圆的物体，轻重轻</t>
+  </si>
+  <si>
+    <t>衔接线</t>
+  </si>
+  <si>
+    <t>大画创作，轻重轻，接轻重轻</t>
+  </si>
+  <si>
+    <t>比例法</t>
+  </si>
+  <si>
+    <t>目的：把所画物体与参照物，画得一摸一样</t>
   </si>
 </sst>
 </file>
@@ -26,12 +195,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,89 +210,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,6 +315,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -169,23 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,11 +558,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,11 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,8 +622,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,17 +643,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,21 +1155,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+    <col min="3" max="4" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1020,14 +1341,43 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1037,16 +1387,90 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/draw/sketch.xlsx
+++ b/draw/sketch.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>优势</t>
   </si>
@@ -85,7 +85,7 @@
     <t>柔擦，使颜色均匀</t>
   </si>
   <si>
-    <t>较均匀，大面积</t>
+    <t>颜色较重，较均匀，大面积</t>
   </si>
   <si>
     <t>小柔擦笔</t>
@@ -100,7 +100,7 @@
     <t>纸巾</t>
   </si>
   <si>
-    <t>很均匀</t>
+    <t>颜色较轻，很均匀</t>
   </si>
   <si>
     <t>颜色较中轻</t>
@@ -109,7 +109,7 @@
     <t>手指头</t>
   </si>
   <si>
-    <t>较均匀</t>
+    <t>颜色较轻，较均匀</t>
   </si>
   <si>
     <t>颜色较中下轻</t>
@@ -188,6 +188,27 @@
   </si>
   <si>
     <t>目的：把所画物体与参照物，画得一摸一样</t>
+  </si>
+  <si>
+    <t>中炭笔加深线</t>
+  </si>
+  <si>
+    <t>中炭笔与硬炭笔画眉毛，深浅并用</t>
+  </si>
+  <si>
+    <t>开始起型找特点，描线大概就行，画好后柔擦模糊线，再加深线</t>
+  </si>
+  <si>
+    <t>最后点高光</t>
+  </si>
+  <si>
+    <t>颜色深浅凸显立体感</t>
+  </si>
+  <si>
+    <t>先画左侧，以防右侧被手弄花</t>
+  </si>
+  <si>
+    <t>笔尖排线才好</t>
   </si>
 </sst>
 </file>
@@ -195,10 +216,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -210,76 +231,93 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,14 +338,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -315,6 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -322,32 +360,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +383,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,15 +574,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +588,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,35 +642,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,11 +668,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1179,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1449,13 +1470,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="40.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="80.7777777777778" customWidth="1"/>
@@ -1469,6 +1490,41 @@
         <v>56</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
